--- a/airica/data/LD_storage_test/AIRICA_storage_test_mod_291121.xlsx
+++ b/airica/data/LD_storage_test/AIRICA_storage_test_mod_291121.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis\Documents\GitHub\lab-work\airica\data\LD_storage_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFCBE5B-2FFD-42D3-AC9C-EA575B410693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3AA599-1E15-4CC4-A45C-250687A0270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{7741F939-3579-4835-AC9B-056E5DC56150}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7741F939-3579-4835-AC9B-056E5DC56150}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1468,25 +1468,25 @@
   <dimension ref="A1:Y132"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U81" sqref="U81"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="18" width="8.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="33.7109375" style="1" customWidth="1"/>
-    <col min="20" max="21" width="8.7109375" style="1"/>
-    <col min="22" max="22" width="8.7109375" style="3"/>
-    <col min="23" max="23" width="8.7109375" style="1"/>
+    <col min="1" max="3" width="12.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="1" customWidth="1"/>
+    <col min="5" max="18" width="8.7265625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="33.7265625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="8.7265625" style="1"/>
+    <col min="22" max="22" width="8.7265625" style="3"/>
+    <col min="23" max="23" width="8.7265625" style="1"/>
     <col min="24" max="24" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="2"/>
-    <col min="26" max="16384" width="8.7109375" style="1"/>
+    <col min="25" max="25" width="8.7265625" style="2"/>
+    <col min="26" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>3.0590000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>0.58099999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>31</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>31</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>31</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>137</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>137</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>137</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>137</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>137</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>137</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>137</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>137</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>137</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>137</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>137</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>137</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>137</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>137</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>137</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>137</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>137</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="s">
         <v>174</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>174</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>174</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>174</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>174</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>174</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>174</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>174</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>174</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>174</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>174</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>174</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>174</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>174</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>174</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>174</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>174</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>174</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>174</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>174</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>0.20100000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>174</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>174</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>248</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>248</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>248</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>248</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>248</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>248</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>248</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>248</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>248</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>248</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>273</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>273</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>273</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>273</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>273</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>273</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>273</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>273</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>273</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>273</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>273</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>273</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>273</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>273</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>273</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>273</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>273</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>273</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>273</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>273</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>273</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>273</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>273</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>273</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>273</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>273</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>273</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>273</v>
       </c>
